--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1242493.774415471</v>
+        <v>-1247207.685369836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516696</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13277005.64638169</v>
+        <v>13274645.72882001</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94.84762450081185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>234.2917463149537</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.9261895166645</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>144.0274635158581</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.227688909249</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>126.653126411743</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>67.32114799078032</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>203.5808235250865</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>51.12964593538374</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>269.6866836764948</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>74.51160557472602</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>328.6488858692342</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>63.97473759077462</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51.05925556456923</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>121.5013198905372</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>74.54449883855052</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>264.0737387458537</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>56.76156047064443</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.6556929826341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>117.8545206798367</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>79.2973325575928</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>40.79382388938987</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>147.2349865252966</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838912</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828925</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431757</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459998</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.7403246664397</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931882</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908608</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147822</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805026</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922219</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367811</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920543</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.13637826023</v>
+        <v>690.7979323761053</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>297.6224308790359</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>297.6224308790359</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>297.6224308790359</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>284.7683964494177</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475505</v>
+        <v>275.6460449778249</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475505</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475505</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>588.4870060424333</v>
       </c>
       <c r="M2" t="n">
-        <v>895.7983071407457</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572954</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465282</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596804</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023274</v>
+        <v>1908.64878275797</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582691</v>
+        <v>1685.148180317387</v>
       </c>
       <c r="U2" t="n">
-        <v>1676.631123971626</v>
+        <v>1429.395450751986</v>
       </c>
       <c r="V2" t="n">
-        <v>1676.631123971626</v>
+        <v>1087.288641455504</v>
       </c>
       <c r="W2" t="n">
-        <v>1676.631123971626</v>
+        <v>1087.288641455504</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.631123971626</v>
+        <v>1087.288641455504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1676.631123971626</v>
+        <v>690.7979323761053</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948782</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948782</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163586</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272463</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103781</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822426</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284347</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>88.23137426403008</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>407.9705203262565</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262565</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585116</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466464</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466464</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182862</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637621</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.86848083653</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1652.805337515171</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1430.265335886239</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1200.148090019525</v>
+        <v>1161.245374483816</v>
       </c>
       <c r="X3" t="n">
-        <v>1010.841012369537</v>
+        <v>971.9382968338273</v>
       </c>
       <c r="Y3" t="n">
-        <v>831.5267954450444</v>
+        <v>792.6240799093346</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475505</v>
+        <v>848.4802786162134</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475505</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475505</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475505</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475505</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V4" t="n">
-        <v>500.6880427951286</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W4" t="n">
-        <v>500.6880427951286</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781117</v>
+        <v>848.4802786162134</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475505</v>
+        <v>848.4802786162134</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1765.791020991562</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="C5" t="n">
-        <v>1372.615519494492</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="D5" t="n">
-        <v>987.17439071116</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="E5" t="n">
-        <v>584.5908658277044</v>
+        <v>988.819012154052</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>571.9245736840297</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475505</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475505</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.724509032206</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="N5" t="n">
-        <v>1219.724509032206</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465282</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596804</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023274</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023274</v>
+        <v>1647.155266602909</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023274</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023274</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="W5" t="n">
-        <v>1765.791020991562</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="X5" t="n">
-        <v>1765.791020991562</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="Y5" t="n">
-        <v>1765.791020991562</v>
+        <v>1391.402537037507</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793.4743885466976</v>
+        <v>573.0955921303622</v>
       </c>
       <c r="C6" t="n">
-        <v>642.8201581067898</v>
+        <v>422.4413616904544</v>
       </c>
       <c r="D6" t="n">
-        <v>512.7311907282701</v>
+        <v>422.4413616904544</v>
       </c>
       <c r="E6" t="n">
-        <v>376.2846998391578</v>
+        <v>285.9948708013421</v>
       </c>
       <c r="F6" t="n">
-        <v>251.8528937222897</v>
+        <v>161.5630646844739</v>
       </c>
       <c r="G6" t="n">
-        <v>131.7930757941541</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>128.7329332714596</v>
       </c>
       <c r="L6" t="n">
-        <v>885.6388105817872</v>
+        <v>128.7329332714596</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591881</v>
+        <v>642.3356118811472</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591881</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182862</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182862</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635817</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535686</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413236</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784303</v>
+        <v>1323.630467012518</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.23104691759</v>
+        <v>1093.513221145805</v>
       </c>
       <c r="X6" t="n">
-        <v>1124.584939912152</v>
+        <v>904.2061434958164</v>
       </c>
       <c r="Y6" t="n">
-        <v>945.2707229876589</v>
+        <v>724.8919265713236</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287658</v>
+        <v>242.0866348642472</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="U7" t="n">
-        <v>436.8128385121225</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="V7" t="n">
-        <v>436.8128385121225</v>
+        <v>317.350882919526</v>
       </c>
       <c r="W7" t="n">
-        <v>436.8128385121225</v>
+        <v>242.0866348642472</v>
       </c>
       <c r="X7" t="n">
-        <v>436.8128385121225</v>
+        <v>242.0866348642472</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.7007773287658</v>
+        <v>242.0866348642472</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>986.2431031906915</v>
+        <v>797.412810476668</v>
       </c>
       <c r="C8" t="n">
-        <v>593.067601693622</v>
+        <v>797.412810476668</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>797.412810476668</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922119</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1772.186417337034</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W8" t="n">
-        <v>1772.186417337034</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X8" t="n">
-        <v>1382.73381227009</v>
+        <v>1197.907556188065</v>
       </c>
       <c r="Y8" t="n">
-        <v>986.2431031906915</v>
+        <v>1197.907556188065</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.8440228225815</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="C10" t="n">
-        <v>204.6389048885707</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="D10" t="n">
-        <v>204.6389048885707</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>826.0313866930585</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>826.0313866930585</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>826.0313866930585</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>560.0520415138827</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>560.0520415138827</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X10" t="n">
-        <v>560.0520415138827</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="Y10" t="n">
-        <v>560.0520415138827</v>
+        <v>713.0409408113302</v>
       </c>
     </row>
     <row r="11">
@@ -5024,64 +5024,64 @@
         <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>815.1246131550882</v>
       </c>
       <c r="F11" t="n">
         <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.239105293022</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2935.941631718729</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="X11" t="n">
-        <v>2109.634413445567</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y11" t="n">
         <v>2109.634413445567</v>
@@ -5112,10 +5112,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
@@ -5127,7 +5127,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.0869922083496</v>
+        <v>399.850318453434</v>
       </c>
       <c r="C13" t="n">
-        <v>389.0869922083496</v>
+        <v>301.441475665617</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083496</v>
+        <v>301.441475665617</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>301.441475665617</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>215.9118160247837</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>119.4540372704231</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J13" t="n">
         <v>102.7129143774627</v>
@@ -5203,7 +5203,7 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.969315569423</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.969315569423</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.046538883851</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>1108.404022271946</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>914.2209522389638</v>
+        <v>924.9842784840482</v>
       </c>
       <c r="W13" t="n">
-        <v>702.6868253163353</v>
+        <v>713.4501515614198</v>
       </c>
       <c r="X13" t="n">
-        <v>540.4027782455123</v>
+        <v>551.1661044905968</v>
       </c>
       <c r="Y13" t="n">
-        <v>389.0869922083496</v>
+        <v>399.850318453434</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1547.389404957965</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.010178607089</v>
+        <v>813.6365687735845</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.010178607089</v>
+        <v>499.9917151364461</v>
       </c>
       <c r="E14" t="n">
-        <v>895.2229288698278</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="F14" t="n">
-        <v>550.1247655459995</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="G14" t="n">
-        <v>208.7582851801968</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2200.782309456373</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1876.087875523168</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1778.52287682331</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>2295.043159414291</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2295.043159414291</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.9602217740419</v>
+        <v>413.5024430196814</v>
       </c>
       <c r="C16" t="n">
-        <v>411.551378986225</v>
+        <v>315.0936002318645</v>
       </c>
       <c r="D16" t="n">
-        <v>411.551378986225</v>
+        <v>315.0936002318645</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916214</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507882</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1455.526759097952</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1291.60398241238</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1077.961465800475</v>
+        <v>936.0428256245438</v>
       </c>
       <c r="V16" t="n">
-        <v>883.7783957674935</v>
+        <v>936.0428256245438</v>
       </c>
       <c r="W16" t="n">
-        <v>672.244268844865</v>
+        <v>724.5086987019153</v>
       </c>
       <c r="X16" t="n">
-        <v>509.9602217740419</v>
+        <v>562.2246516310922</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.9602217740419</v>
+        <v>413.5024430196814</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,19 +6148,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388008</v>
+        <v>247.9841471388013</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>606.9665031662631</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,22 +6303,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>985.0370485667553</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6382,19 +6382,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,13 +6461,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>303.7986541368136</v>
+        <v>303.7986541368141</v>
       </c>
       <c r="K29" t="n">
-        <v>662.7810101642755</v>
+        <v>755.8323718938492</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.152663612378</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
         <v>1888.204925386532</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1532.448062118649</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2048.96834470963</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,7 +6598,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
@@ -6610,7 +6610,7 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150706</v>
+        <v>2293.032006377471</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770105</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901626</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042575</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>182.6625304604891</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588024</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>981.219737859967</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1636.997709070526</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965145</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991868</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237471</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612314</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546513</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431948</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067566</v>
+        <v>337.0682132920773</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076263</v>
+        <v>612.8479737408601</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729604</v>
+        <v>799.1395520791241</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.83739383124</v>
+        <v>982.3291861103332</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600018</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376596</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395544</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000963</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124437</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584514</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,19 +6968,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1009.629923393023</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2181.928177194563</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2181.928177194563</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.010538436486</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184686</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567326</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,22 +7157,22 @@
         <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975461</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099323</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803439</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7196,16 +7196,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573995</v>
@@ -7245,10 +7245,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>270.9691711012537</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>435.0968109750535</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>621.3883893133175</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>804.5780233445266</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862346</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>973.7913173233209</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,10 +7807,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
         <v>623.4297566485498</v>
@@ -7825,31 +7825,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363553</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>458.1205210672871</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>129.6445861289815</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.08286448375</v>
+        <v>611.1777065035418</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211856</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,13 +8222,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321653</v>
+        <v>576.6102771213896</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>575.8521287706382</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>177.7077297930518</v>
       </c>
       <c r="L6" t="n">
-        <v>503.4836023165933</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.08286448375</v>
+        <v>611.1777065035418</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083966</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084876</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8693,7 +8693,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987045</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9009,13 +9009,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.2623988786017</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>723.5863546247126</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>569.9919810238538</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>201.8486954419032</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>433.2773539239166</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,22 +10428,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>410.5599720504884</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>291.5199566763059</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>345.5977578821532</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,16 +11136,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>576.0417294606771</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>75.64278518289505</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>50.40602787568798</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465753</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>26.08389266274462</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.92797409638271</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>209.6248565600523</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>170.4665749768494</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>88.91578669515427</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>2.567641651494553</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1161538.310438524</v>
+        <v>1160335.215211004</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1161538.310438524</v>
+        <v>1160335.215211004</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="C2" t="n">
         <v>144265.7424746855</v>
@@ -26326,7 +26326,7 @@
         <v>127487.2187395205</v>
       </c>
       <c r="G2" t="n">
-        <v>144265.7424746853</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="H2" t="n">
         <v>144265.7424746854</v>
@@ -26335,22 +26335,22 @@
         <v>144265.7424746854</v>
       </c>
       <c r="J2" t="n">
-        <v>144265.7424746851</v>
+        <v>144265.7424746852</v>
       </c>
       <c r="K2" t="n">
-        <v>144265.7424746851</v>
+        <v>144265.7424746852</v>
       </c>
       <c r="L2" t="n">
+        <v>144265.7424746854</v>
+      </c>
+      <c r="M2" t="n">
+        <v>144265.7424746855</v>
+      </c>
+      <c r="N2" t="n">
         <v>144265.7424746853</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>144265.7424746854</v>
-      </c>
-      <c r="N2" t="n">
-        <v>144265.7424746854</v>
-      </c>
-      <c r="O2" t="n">
-        <v>144265.7424746855</v>
       </c>
       <c r="P2" t="n">
         <v>144265.7424746854</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062162</v>
+        <v>22558.42953401369</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668187</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.547473508864641e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>206802.1491945029</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728526</v>
+        <v>62456.24177539689</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.5244708113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26430,7 +26430,7 @@
         <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26439,13 +26439,13 @@
         <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.07644833</v>
       </c>
       <c r="K4" t="n">
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26457,7 +26457,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984054</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-315308.4164412075</v>
+        <v>-310956.9706269123</v>
       </c>
       <c r="C6" t="n">
-        <v>-133103.4681493511</v>
+        <v>-137098.3135928574</v>
       </c>
       <c r="D6" t="n">
-        <v>-140271.7891710225</v>
+        <v>-148008.0783944146</v>
       </c>
       <c r="E6" t="n">
-        <v>-163523.0299267293</v>
+        <v>-163732.7614734188</v>
       </c>
       <c r="F6" t="n">
-        <v>-51400.46845268462</v>
+        <v>-51610.19999937404</v>
       </c>
       <c r="G6" t="n">
         <v>-134789.9363614629</v>
       </c>
       <c r="H6" t="n">
-        <v>-87364.61082478106</v>
+        <v>-87364.610824781</v>
       </c>
       <c r="I6" t="n">
-        <v>-87364.61082478103</v>
+        <v>-87364.61082478115</v>
       </c>
       <c r="J6" t="n">
-        <v>-300406.5284220672</v>
+        <v>-293890.2432674934</v>
       </c>
       <c r="K6" t="n">
-        <v>-93604.37922756423</v>
+        <v>-93604.3792275642</v>
       </c>
       <c r="L6" t="n">
-        <v>-148786.968162185</v>
+        <v>-152835.8053726574</v>
       </c>
       <c r="M6" t="n">
-        <v>-129565.4402844041</v>
+        <v>-130617.1352955923</v>
       </c>
       <c r="N6" t="n">
-        <v>-87364.61082478106</v>
+        <v>-87364.61082478111</v>
       </c>
       <c r="O6" t="n">
-        <v>-115132.3048675522</v>
+        <v>-115132.3048675523</v>
       </c>
       <c r="P6" t="n">
-        <v>-87364.610824781</v>
+        <v>-87364.61082478098</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,19 +26814,19 @@
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095212</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085234</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660658</v>
+        <v>78.07030221924612</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155138</v>
+        <v>17.58004954287426</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321495</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773723</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407186</v>
+        <v>117.1268713042804</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085234</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>225.9945954283624</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.90345595479369</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.35218157988723</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>83.78860989218794</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27591,19 +27591,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>106.091862818135</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>138.2142282199861</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>286.072367673579</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>341.7099799660965</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>16.73377808755714</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>136.2843609381047</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>12.89772016402327</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>205.9854924734081</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>10.03685533428256</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>321.5833414254991</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>103.0175264019412</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,16 +28059,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>79.2866030887389</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082788</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,13 +29220,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L25" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>30.2722376590126</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>86.65052755599524</v>
+        <v>86.65052755599569</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,10 +29782,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566978</v>
+        <v>43.49509683159749</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254593</v>
+        <v>106.8683420224695</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634528154</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733463</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.297982108279</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30645,11 +30645,11 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>5.636002634529632</v>
-      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,13 +30879,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634529465</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.7895256058636</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N2" t="n">
-        <v>309.002029729503</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>47.20012879564817</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701898</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,13 +34942,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344381</v>
+        <v>426.8852255236623</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>426.2882913465418</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>88.11079445971841</v>
       </c>
       <c r="L6" t="n">
-        <v>413.4232554596751</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515693</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682127</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35729,13 +35729,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>86.27424572268772</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>631.1992325754007</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36048,22 +36048,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>249.3850182462369</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851016</v>
+        <v>176.383119385102</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>109.4615733925913</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.7614092820842</v>
+        <v>232.7614092820847</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>346.1939891046019</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,10 +37078,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105809</v>
+        <v>576.6378075765086</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273741</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>318.1728500011765</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>82.70543230055105</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993559</v>
+        <v>189.5299997092795</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220906</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.5318035203919</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565481</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>260.2256450279866</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>210.959639795089</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>483.6546074113651</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873216</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681948</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
